--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
@@ -1096,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1211,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1257,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1280,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1303,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1349,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Mat</t>
   </si>
@@ -77,114 +77,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>NOYOLA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>DIANA SARAY</t>
-  </si>
-  <si>
-    <t>ALISSON FERNANDA</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>IVAN DE JESUS</t>
-  </si>
-  <si>
-    <t>MEILYN ADABEL</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +935,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,282 +968,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920191</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920211</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920137</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920136</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>19</v>
@@ -492,7 +501,7 @@
         <v>52.78</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,19 +515,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>41.94</v>
+        <v>74.19</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -532,10 +541,10 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -544,7 +553,7 @@
         <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -558,19 +567,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H5">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -584,10 +593,10 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -596,7 +605,7 @@
         <v>69.56999999999999</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -652,16 +661,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>38.89</v>
+      </c>
+      <c r="H2">
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -675,16 +687,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>67.73999999999999</v>
+      </c>
+      <c r="H3">
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -698,16 +713,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -721,16 +739,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -744,16 +765,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>56.52</v>
+      </c>
+      <c r="H6">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -809,19 +833,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>52.78</v>
+        <v>38.89</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -835,19 +859,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>41.94</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -861,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>85.70999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -887,19 +911,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -913,19 +937,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>69.56999999999999</v>
+        <v>56.52</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +959,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -968,6 +992,29 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>Mat</t>
   </si>
@@ -79,10 +79,28 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>LUNA</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
     <t>MORALES</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
   </si>
   <si>
     <t>JESUS ANTONIO</t>
@@ -959,7 +977,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,24 +1012,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920326</v>
+        <v>20330051920282</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920325</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920326</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>Mat</t>
   </si>
@@ -79,31 +79,85 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
     <t>TINOCO</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
   </si>
   <si>
     <t>RAMOS</t>
   </si>
   <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
   </si>
   <si>
     <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,22 +1066,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920282</v>
+        <v>20330051920068</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1035,22 +1089,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920325</v>
+        <v>20330051920069</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1058,25 +1112,163 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920326</v>
+        <v>20330051920386</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19220030050208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920325</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
